--- a/spreadsheets/CW5.xlsx
+++ b/spreadsheets/CW5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATI\STIIMA-ITIA\PROGETTI\ErasmusPlus_VirLaDEE\output\O2\Lecture_DigitalTwin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\difactory\repository\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87B618F-DFBF-49C2-A270-22111DEE0635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6FFCCE-9F5C-42AE-95B1-6DF2547491B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="11640" windowHeight="5010" tabRatio="484" activeTab="1" xr2:uid="{F487811F-0527-4F45-AB48-04B8DCD52C96}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t/>
   </si>
   <si>
-    <t>http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding</t>
-  </si>
-  <si>
     <t>building</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
   </si>
   <si>
     <t>UR_base</t>
-  </si>
-  <si>
-    <t>http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly</t>
   </si>
   <si>
     <t>UR_Pick_and_Place_Station.glb#URbase</t>
@@ -221,6 +215,12 @@
   </si>
   <si>
     <t>RS</t>
+  </si>
+  <si>
+    <t>https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding</t>
+  </si>
+  <si>
+    <t>https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly</t>
   </si>
 </sst>
 </file>
@@ -961,19 +961,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.41796875" customWidth="1"/>
-    <col min="2" max="2" width="17.68359375" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="12" t="str">
         <f>CONCATENATE(Context!D1,B3,Context!E1,B4,Context!F1,B5,"""},",Context!G1,Assets!AU202,Context!H1,Assets!AV202,"]}")</f>
-        <v>{"context": { "UnitOfMeasureScale": 0.01,"Zup": false, "RepoPath": ""},"scene": ["building","RS","UR","UR_base","UR_joint1","UR_joint2","UR_joint3","UR_joint4","UR_joint5","UR_joint6","UR_EndEffector","UR_Gripper1","UR_Gripper2"], "assets": [{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}]}</v>
+        <v>{"context": { "UnitOfMeasureScale": 0.01,"Zup": false, "RepoPath": ""},"scene": ["building","RS","UR","UR_base","UR_joint1","UR_joint2","UR_joint3","UR_joint4","UR_joint5","UR_joint6","UR_EndEffector","UR_Gripper1","UR_Gripper2"], "assets": [{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}]}</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -997,8 +997,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1034,54 +1034,54 @@
       <selection activeCell="A4" sqref="A4:A54"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:A54"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:A54"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26171875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="45.83984375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="12.68359375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="41.83984375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="3.9453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.41796875" style="30" customWidth="1"/>
-    <col min="9" max="9" width="7.578125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="8.26171875" style="30" customWidth="1"/>
-    <col min="11" max="11" width="6.41796875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.15625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="4" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="6" customWidth="1"/>
     <col min="13" max="13" width="7" style="6" customWidth="1"/>
-    <col min="14" max="14" width="14.68359375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="15.15625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="7.83984375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="2.578125" style="30" customWidth="1"/>
-    <col min="18" max="21" width="2.26171875" style="6" customWidth="1"/>
-    <col min="22" max="24" width="2.26171875" customWidth="1"/>
-    <col min="25" max="25" width="5.578125" customWidth="1"/>
-    <col min="26" max="26" width="6.578125" customWidth="1"/>
-    <col min="27" max="27" width="3.26171875" style="3" customWidth="1"/>
-    <col min="28" max="28" width="2.578125" customWidth="1"/>
-    <col min="29" max="31" width="1.68359375" customWidth="1"/>
-    <col min="32" max="32" width="2.41796875" customWidth="1"/>
-    <col min="33" max="45" width="1.68359375" customWidth="1"/>
-    <col min="46" max="47" width="3.15625" customWidth="1"/>
-    <col min="48" max="48" width="8.578125" customWidth="1"/>
-    <col min="49" max="49" width="7.15625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="2.5703125" style="30" customWidth="1"/>
+    <col min="18" max="21" width="2.28515625" style="6" customWidth="1"/>
+    <col min="22" max="24" width="2.28515625" customWidth="1"/>
+    <col min="25" max="25" width="5.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6.5703125" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="2.5703125" customWidth="1"/>
+    <col min="29" max="31" width="1.7109375" customWidth="1"/>
+    <col min="32" max="32" width="2.42578125" customWidth="1"/>
+    <col min="33" max="45" width="1.7109375" customWidth="1"/>
+    <col min="46" max="47" width="3.140625" customWidth="1"/>
+    <col min="48" max="48" width="8.5703125" customWidth="1"/>
+    <col min="49" max="49" width="7.140625" customWidth="1"/>
     <col min="50" max="52" width="3" customWidth="1"/>
-    <col min="53" max="53" width="2.68359375" customWidth="1"/>
+    <col min="53" max="53" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:50" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="str">
         <f>Context!B1</f>
-        <v>{"context": { "UnitOfMeasureScale": 0.01,"Zup": false, "RepoPath": ""},"scene": ["building","RS","UR","UR_base","UR_joint1","UR_joint2","UR_joint3","UR_joint4","UR_joint5","UR_joint6","UR_EndEffector","UR_Gripper1","UR_Gripper2"], "assets": [{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}]}</v>
+        <v>{"context": { "UnitOfMeasureScale": 0.01,"Zup": false, "RepoPath": ""},"scene": ["building","RS","UR","UR_base","UR_joint1","UR_joint2","UR_joint3","UR_joint4","UR_joint5","UR_joint6","UR_EndEffector","UR_Gripper1","UR_Gripper2"], "assets": [{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}]}</v>
       </c>
       <c r="AF1" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
@@ -1212,18 +1212,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="25">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="AD3" s="2" t="str">
         <f>IF(D3&lt;&gt;"",CONCATENATE(", """,D$2,""": """,D3,""""),"")</f>
-        <v>, "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding"</v>
+        <v>, "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding"</v>
       </c>
       <c r="AE3" s="2" t="str">
         <f>IF(E3&lt;&gt;"",CONCATENATE(", """,E$2,""": """,E3,""""),"")</f>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="AT3" s="2" t="str">
         <f>CONCATENATE(AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3,AO3,AP3,AQ3,AR3,AS3)</f>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]}</v>
       </c>
       <c r="AU3" s="9" t="str">
         <f>IF(B3=1,CONCATENATE(IF(AU2&lt;&gt;"",CONCATENATE(AU2,","),""),"""",A3,""""),AU2)</f>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="AV3" s="4" t="str">
         <f>IF(A3&lt;&gt;"",CONCATENATE(IF(AV2&lt;&gt;"",CONCATENATE(AV2,","),""),AT3),AV2)</f>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]}</v>
       </c>
       <c r="AW3" s="5" t="s">
         <v>1</v>
@@ -1344,22 +1344,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="25">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="49">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="str">
-        <f t="shared" ref="N4:N8" si="1">$A$3</f>
+        <f t="shared" ref="N4" si="1">$A$3</f>
         <v>building</v>
       </c>
       <c r="O4" s="1"/>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="AV4" s="4" t="str">
         <f t="shared" ref="AV4:AV67" si="13">IF(A4&lt;&gt;"",CONCATENATE(IF(AV3&lt;&gt;"",CONCATENATE(AV3,","),""),AT4),AV3)</f>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"}</v>
       </c>
       <c r="AW4" s="5" t="s">
         <v>1</v>
@@ -1490,20 +1490,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="25">
         <v>1</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" s="25">
         <v>1</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="AV5" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"}</v>
       </c>
       <c r="AW5" s="5" t="s">
         <v>1</v>
@@ -1630,20 +1630,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="25">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="33" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" s="50">
         <v>1</v>
@@ -1661,11 +1661,11 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="36" t="str">
-        <f t="shared" ref="N6:N15" si="14">A5</f>
+        <f t="shared" ref="N6:N14" si="14">A5</f>
         <v>UR</v>
       </c>
       <c r="O6" s="36" t="str">
-        <f t="shared" ref="O6:O15" si="15">A5</f>
+        <f t="shared" ref="O6:O14" si="15">A5</f>
         <v>UR</v>
       </c>
       <c r="P6" s="1"/>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AD6" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>, "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly"</v>
+        <v>, "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly"</v>
       </c>
       <c r="AE6" s="2" t="str">
         <f t="shared" si="3"/>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="AT6" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"}</v>
+        <v>{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"}</v>
       </c>
       <c r="AU6" s="9" t="str">
         <f t="shared" si="12"/>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="AV6" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"}</v>
       </c>
       <c r="AW6" s="5" t="s">
         <v>1</v>
@@ -1770,20 +1770,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="25">
         <v>1</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="33" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="25">
         <v>1</v>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="AD7" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>, "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly"</v>
+        <v>, "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly"</v>
       </c>
       <c r="AE7" s="2" t="str">
         <f t="shared" si="3"/>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AT7" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"}</v>
+        <v>{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"}</v>
       </c>
       <c r="AU7" s="9" t="str">
         <f t="shared" si="12"/>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="AV7" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"}</v>
       </c>
       <c r="AW7" s="5" t="s">
         <v>1</v>
@@ -1916,20 +1916,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="25">
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="33" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" s="49">
         <v>1</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="AD8" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>, "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly"</v>
+        <v>, "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly"</v>
       </c>
       <c r="AE8" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="AT8" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"}</v>
+        <v>{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"}</v>
       </c>
       <c r="AU8" s="9" t="str">
         <f t="shared" si="12"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="AV8" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"}</v>
       </c>
       <c r="AW8" s="5" t="s">
         <v>1</v>
@@ -2062,20 +2062,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="25">
         <v>1</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="40" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" s="25">
         <v>1</v>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AD9" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>, "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly"</v>
+        <v>, "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly"</v>
       </c>
       <c r="AE9" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="AT9" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"}</v>
+        <v>{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"}</v>
       </c>
       <c r="AU9" s="9" t="str">
         <f t="shared" si="12"/>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="AV9" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"}</v>
       </c>
       <c r="AW9" s="5" t="s">
         <v>1</v>
@@ -2208,20 +2208,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="25">
         <v>1</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="40" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="25">
         <v>1</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AD10" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>, "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly"</v>
+        <v>, "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly"</v>
       </c>
       <c r="AE10" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="AT10" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"}</v>
+        <v>{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"}</v>
       </c>
       <c r="AU10" s="9" t="str">
         <f t="shared" si="12"/>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="AV10" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"}</v>
       </c>
       <c r="AW10" s="5" t="s">
         <v>1</v>
@@ -2354,20 +2354,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="25">
         <v>1</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="36" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="25">
         <v>1</v>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="AD11" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>, "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly"</v>
+        <v>, "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly"</v>
       </c>
       <c r="AE11" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="AT11" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"}</v>
+        <v>{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"}</v>
       </c>
       <c r="AU11" s="9" t="str">
         <f t="shared" si="12"/>
@@ -2491,26 +2491,26 @@
       </c>
       <c r="AV11" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"}</v>
       </c>
       <c r="AW11" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="25">
         <v>1</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="48" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="25">
         <v>1</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="AD12" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>, "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly"</v>
+        <v>, "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly"</v>
       </c>
       <c r="AE12" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="AT12" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"}</v>
+        <v>{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"}</v>
       </c>
       <c r="AU12" s="9" t="str">
         <f t="shared" si="12"/>
@@ -2634,26 +2634,26 @@
       </c>
       <c r="AV12" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"}</v>
       </c>
       <c r="AW12" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="25">
         <v>1</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="33" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" s="25">
         <v>1</v>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="AD13" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>, "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly"</v>
+        <v>, "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly"</v>
       </c>
       <c r="AE13" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="AT13" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"}</v>
+        <v>{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"}</v>
       </c>
       <c r="AU13" s="9" t="str">
         <f t="shared" si="12"/>
@@ -2771,26 +2771,26 @@
       </c>
       <c r="AV13" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"}</v>
       </c>
       <c r="AW13" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="25">
         <v>1</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="36" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="37">
         <v>1</v>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="AD14" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>, "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly"</v>
+        <v>, "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly"</v>
       </c>
       <c r="AE14" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="AT14" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AU14" s="9" t="str">
         <f t="shared" si="12"/>
@@ -2908,26 +2908,26 @@
       </c>
       <c r="AV14" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="25">
         <v>1</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="36" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="37">
         <v>1</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="AD15" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>, "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly"</v>
+        <v>, "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly"</v>
       </c>
       <c r="AE15" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="AT15" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AU15" s="9" t="str">
         <f t="shared" si="12"/>
@@ -3045,13 +3045,13 @@
       </c>
       <c r="AV15" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW15" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="37"/>
       <c r="C16" s="39"/>
@@ -3160,13 +3160,13 @@
       </c>
       <c r="AV16" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW16" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -3275,13 +3275,13 @@
       </c>
       <c r="AV17" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW17" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="37"/>
       <c r="C18" s="39"/>
@@ -3390,13 +3390,13 @@
       </c>
       <c r="AV18" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW18" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="39"/>
@@ -3505,13 +3505,13 @@
       </c>
       <c r="AV19" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW19" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="37"/>
       <c r="C20" s="39"/>
@@ -3620,13 +3620,13 @@
       </c>
       <c r="AV20" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW20" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="39"/>
@@ -3735,13 +3735,13 @@
       </c>
       <c r="AV21" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW21" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="37"/>
       <c r="C22" s="39"/>
@@ -3850,13 +3850,13 @@
       </c>
       <c r="AV22" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW22" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="37"/>
       <c r="C23" s="39"/>
@@ -3965,13 +3965,13 @@
       </c>
       <c r="AV23" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW23" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="37"/>
       <c r="C24" s="39"/>
@@ -4080,13 +4080,13 @@
       </c>
       <c r="AV24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW24" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="37"/>
       <c r="C25" s="39"/>
@@ -4195,13 +4195,13 @@
       </c>
       <c r="AV25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW25" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="37"/>
       <c r="C26" s="39"/>
@@ -4310,13 +4310,13 @@
       </c>
       <c r="AV26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW26" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="37"/>
       <c r="C27" s="39"/>
@@ -4425,13 +4425,13 @@
       </c>
       <c r="AV27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW27" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
@@ -4540,13 +4540,13 @@
       </c>
       <c r="AV28" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW28" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
@@ -4655,13 +4655,13 @@
       </c>
       <c r="AV29" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW29" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="37"/>
       <c r="C30" s="39"/>
@@ -4770,13 +4770,13 @@
       </c>
       <c r="AV30" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW30" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37"/>
       <c r="C31" s="39"/>
@@ -4885,13 +4885,13 @@
       </c>
       <c r="AV31" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW31" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="37"/>
       <c r="C32" s="36"/>
@@ -5000,13 +5000,13 @@
       </c>
       <c r="AV32" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW32" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="37"/>
       <c r="C33" s="36"/>
@@ -5115,13 +5115,13 @@
       </c>
       <c r="AV33" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW33" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="37"/>
       <c r="C34" s="36"/>
@@ -5230,13 +5230,13 @@
       </c>
       <c r="AV34" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW34" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37"/>
       <c r="C35" s="36"/>
@@ -5345,13 +5345,13 @@
       </c>
       <c r="AV35" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW35" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="37"/>
       <c r="C36" s="36"/>
@@ -5460,13 +5460,13 @@
       </c>
       <c r="AV36" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW36" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="37"/>
       <c r="C37" s="36"/>
@@ -5575,13 +5575,13 @@
       </c>
       <c r="AV37" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW37" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
       <c r="C38" s="36"/>
@@ -5690,13 +5690,13 @@
       </c>
       <c r="AV38" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW38" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36"/>
       <c r="B39" s="37"/>
       <c r="C39" s="36"/>
@@ -5805,13 +5805,13 @@
       </c>
       <c r="AV39" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW39" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
       <c r="C40" s="36"/>
@@ -5920,13 +5920,13 @@
       </c>
       <c r="AV40" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW40" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36"/>
       <c r="B41" s="37"/>
       <c r="C41" s="36"/>
@@ -6035,13 +6035,13 @@
       </c>
       <c r="AV41" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW41" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
       <c r="C42" s="36"/>
@@ -6150,13 +6150,13 @@
       </c>
       <c r="AV42" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW42" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
       <c r="B43" s="37"/>
       <c r="C43" s="36"/>
@@ -6265,13 +6265,13 @@
       </c>
       <c r="AV43" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW43" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
       <c r="B44" s="37"/>
       <c r="C44" s="36"/>
@@ -6380,13 +6380,13 @@
       </c>
       <c r="AV44" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW44" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
       <c r="B45" s="37"/>
       <c r="C45" s="36"/>
@@ -6495,13 +6495,13 @@
       </c>
       <c r="AV45" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW45" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
       <c r="B46" s="37"/>
       <c r="C46" s="36"/>
@@ -6610,13 +6610,13 @@
       </c>
       <c r="AV46" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW46" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
       <c r="B47" s="37"/>
       <c r="C47" s="36"/>
@@ -6725,13 +6725,13 @@
       </c>
       <c r="AV47" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW47" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
       <c r="B48" s="37"/>
       <c r="C48" s="36"/>
@@ -6840,13 +6840,13 @@
       </c>
       <c r="AV48" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW48" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
       <c r="B49" s="37"/>
       <c r="C49" s="36"/>
@@ -6955,13 +6955,13 @@
       </c>
       <c r="AV49" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW49" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="36"/>
@@ -7070,13 +7070,13 @@
       </c>
       <c r="AV50" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW50" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
       <c r="B51" s="37"/>
       <c r="C51" s="36"/>
@@ -7185,13 +7185,13 @@
       </c>
       <c r="AV51" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW51" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
       <c r="B52" s="37"/>
       <c r="C52" s="36"/>
@@ -7300,13 +7300,13 @@
       </c>
       <c r="AV52" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW52" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36"/>
       <c r="B53" s="37"/>
       <c r="C53" s="36"/>
@@ -7415,13 +7415,13 @@
       </c>
       <c r="AV53" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW53" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36"/>
       <c r="B54" s="37"/>
       <c r="C54" s="36"/>
@@ -7530,13 +7530,13 @@
       </c>
       <c r="AV54" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW54" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36"/>
       <c r="B55" s="37"/>
       <c r="C55" s="36"/>
@@ -7645,13 +7645,13 @@
       </c>
       <c r="AV55" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW55" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36"/>
       <c r="B56" s="37"/>
       <c r="C56" s="36"/>
@@ -7760,13 +7760,13 @@
       </c>
       <c r="AV56" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW56" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36"/>
       <c r="B57" s="37"/>
       <c r="C57" s="36"/>
@@ -7875,13 +7875,13 @@
       </c>
       <c r="AV57" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW57" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
       <c r="B58" s="37"/>
       <c r="C58" s="36"/>
@@ -7990,13 +7990,13 @@
       </c>
       <c r="AV58" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW58" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36"/>
       <c r="B59" s="37"/>
       <c r="C59" s="36"/>
@@ -8105,13 +8105,13 @@
       </c>
       <c r="AV59" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW59" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
       <c r="B60" s="37"/>
       <c r="C60" s="36"/>
@@ -8220,13 +8220,13 @@
       </c>
       <c r="AV60" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW60" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36"/>
       <c r="B61" s="37"/>
       <c r="C61" s="36"/>
@@ -8335,13 +8335,13 @@
       </c>
       <c r="AV61" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW61" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36"/>
       <c r="B62" s="37"/>
       <c r="C62" s="36"/>
@@ -8450,13 +8450,13 @@
       </c>
       <c r="AV62" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW62" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36"/>
       <c r="B63" s="37"/>
       <c r="C63" s="36"/>
@@ -8565,13 +8565,13 @@
       </c>
       <c r="AV63" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW63" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36"/>
       <c r="B64" s="37"/>
       <c r="C64" s="36"/>
@@ -8680,13 +8680,13 @@
       </c>
       <c r="AV64" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW64" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36"/>
       <c r="B65" s="37"/>
       <c r="C65" s="36"/>
@@ -8795,13 +8795,13 @@
       </c>
       <c r="AV65" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW65" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36"/>
       <c r="B66" s="37"/>
       <c r="C66" s="36"/>
@@ -8910,13 +8910,13 @@
       </c>
       <c r="AV66" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW66" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36"/>
       <c r="B67" s="37"/>
       <c r="C67" s="36"/>
@@ -9025,13 +9025,13 @@
       </c>
       <c r="AV67" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW67" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
       <c r="B68" s="37"/>
       <c r="C68" s="36"/>
@@ -9140,13 +9140,13 @@
       </c>
       <c r="AV68" s="4" t="str">
         <f t="shared" ref="AV68:AV131" si="28">IF(A68&lt;&gt;"",CONCATENATE(IF(AV67&lt;&gt;"",CONCATENATE(AV67,","),""),AT68),AV67)</f>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW68" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36"/>
       <c r="B69" s="37"/>
       <c r="C69" s="36"/>
@@ -9255,13 +9255,13 @@
       </c>
       <c r="AV69" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW69" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36"/>
       <c r="B70" s="37"/>
       <c r="C70" s="36"/>
@@ -9370,13 +9370,13 @@
       </c>
       <c r="AV70" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW70" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36"/>
       <c r="B71" s="37"/>
       <c r="C71" s="36"/>
@@ -9485,13 +9485,13 @@
       </c>
       <c r="AV71" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW71" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36"/>
       <c r="B72" s="37"/>
       <c r="C72" s="36"/>
@@ -9600,13 +9600,13 @@
       </c>
       <c r="AV72" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW72" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36"/>
       <c r="B73" s="37"/>
       <c r="C73" s="36"/>
@@ -9715,13 +9715,13 @@
       </c>
       <c r="AV73" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW73" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36"/>
       <c r="B74" s="37"/>
       <c r="C74" s="36"/>
@@ -9830,13 +9830,13 @@
       </c>
       <c r="AV74" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW74" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="36"/>
       <c r="B75" s="37"/>
       <c r="C75" s="36"/>
@@ -9945,13 +9945,13 @@
       </c>
       <c r="AV75" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW75" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36"/>
       <c r="B76" s="37"/>
       <c r="C76" s="36"/>
@@ -10060,13 +10060,13 @@
       </c>
       <c r="AV76" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW76" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36"/>
       <c r="B77" s="37"/>
       <c r="C77" s="36"/>
@@ -10175,13 +10175,13 @@
       </c>
       <c r="AV77" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW77" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36"/>
       <c r="B78" s="37"/>
       <c r="C78" s="36"/>
@@ -10290,13 +10290,13 @@
       </c>
       <c r="AV78" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW78" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36"/>
       <c r="B79" s="37"/>
       <c r="C79" s="36"/>
@@ -10405,13 +10405,13 @@
       </c>
       <c r="AV79" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW79" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36"/>
       <c r="B80" s="37"/>
       <c r="C80" s="36"/>
@@ -10520,13 +10520,13 @@
       </c>
       <c r="AV80" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW80" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36"/>
       <c r="B81" s="37"/>
       <c r="C81" s="36"/>
@@ -10635,13 +10635,13 @@
       </c>
       <c r="AV81" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW81" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36"/>
       <c r="B82" s="37"/>
       <c r="C82" s="36"/>
@@ -10750,13 +10750,13 @@
       </c>
       <c r="AV82" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW82" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -10865,13 +10865,13 @@
       </c>
       <c r="AV83" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW83" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36"/>
       <c r="B84" s="37"/>
       <c r="C84" s="36"/>
@@ -10980,13 +10980,13 @@
       </c>
       <c r="AV84" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW84" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36"/>
       <c r="B85" s="37"/>
       <c r="C85" s="36"/>
@@ -11095,13 +11095,13 @@
       </c>
       <c r="AV85" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW85" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36"/>
       <c r="B86" s="37"/>
       <c r="C86" s="36"/>
@@ -11210,13 +11210,13 @@
       </c>
       <c r="AV86" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW86" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36"/>
       <c r="B87" s="37"/>
       <c r="C87" s="36"/>
@@ -11325,13 +11325,13 @@
       </c>
       <c r="AV87" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW87" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36"/>
       <c r="B88" s="37"/>
       <c r="C88" s="36"/>
@@ -11440,13 +11440,13 @@
       </c>
       <c r="AV88" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW88" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36"/>
       <c r="B89" s="37"/>
       <c r="C89" s="36"/>
@@ -11555,13 +11555,13 @@
       </c>
       <c r="AV89" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW89" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36"/>
       <c r="B90" s="37"/>
       <c r="C90" s="36"/>
@@ -11670,13 +11670,13 @@
       </c>
       <c r="AV90" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW90" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36"/>
       <c r="B91" s="37"/>
       <c r="C91" s="36"/>
@@ -11785,13 +11785,13 @@
       </c>
       <c r="AV91" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW91" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36"/>
       <c r="B92" s="37"/>
       <c r="C92" s="36"/>
@@ -11900,13 +11900,13 @@
       </c>
       <c r="AV92" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW92" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
       <c r="B93" s="37"/>
       <c r="C93" s="36"/>
@@ -12015,13 +12015,13 @@
       </c>
       <c r="AV93" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW93" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36"/>
       <c r="B94" s="37"/>
       <c r="C94" s="36"/>
@@ -12130,13 +12130,13 @@
       </c>
       <c r="AV94" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW94" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36"/>
       <c r="B95" s="37"/>
       <c r="C95" s="36"/>
@@ -12245,13 +12245,13 @@
       </c>
       <c r="AV95" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW95" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36"/>
       <c r="B96" s="37"/>
       <c r="C96" s="36"/>
@@ -12360,13 +12360,13 @@
       </c>
       <c r="AV96" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW96" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36"/>
       <c r="B97" s="37"/>
       <c r="C97" s="36"/>
@@ -12475,13 +12475,13 @@
       </c>
       <c r="AV97" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW97" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36"/>
       <c r="B98" s="37"/>
       <c r="C98" s="36"/>
@@ -12590,13 +12590,13 @@
       </c>
       <c r="AV98" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW98" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36"/>
       <c r="B99" s="37"/>
       <c r="C99" s="36"/>
@@ -12705,13 +12705,13 @@
       </c>
       <c r="AV99" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW99" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="25"/>
       <c r="C100" s="1"/>
@@ -12820,13 +12820,13 @@
       </c>
       <c r="AV100" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW100" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="25"/>
       <c r="C101" s="1"/>
@@ -12935,13 +12935,13 @@
       </c>
       <c r="AV101" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW101" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="25"/>
       <c r="C102" s="1"/>
@@ -13050,13 +13050,13 @@
       </c>
       <c r="AV102" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW102" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="25"/>
       <c r="C103" s="1"/>
@@ -13165,13 +13165,13 @@
       </c>
       <c r="AV103" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW103" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="25"/>
       <c r="C104" s="1"/>
@@ -13280,13 +13280,13 @@
       </c>
       <c r="AV104" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW104" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="25"/>
       <c r="C105" s="1"/>
@@ -13395,13 +13395,13 @@
       </c>
       <c r="AV105" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW105" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="25"/>
       <c r="C106" s="1"/>
@@ -13510,13 +13510,13 @@
       </c>
       <c r="AV106" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW106" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="25"/>
       <c r="C107" s="1"/>
@@ -13625,13 +13625,13 @@
       </c>
       <c r="AV107" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW107" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="25"/>
       <c r="C108" s="1"/>
@@ -13740,13 +13740,13 @@
       </c>
       <c r="AV108" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW108" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="25"/>
       <c r="C109" s="1"/>
@@ -13855,13 +13855,13 @@
       </c>
       <c r="AV109" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW109" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="25"/>
       <c r="C110" s="1"/>
@@ -13970,13 +13970,13 @@
       </c>
       <c r="AV110" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW110" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="25"/>
       <c r="C111" s="1"/>
@@ -14085,13 +14085,13 @@
       </c>
       <c r="AV111" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW111" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="25"/>
       <c r="C112" s="1"/>
@@ -14200,13 +14200,13 @@
       </c>
       <c r="AV112" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW112" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="25"/>
       <c r="C113" s="1"/>
@@ -14315,13 +14315,13 @@
       </c>
       <c r="AV113" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW113" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="25"/>
       <c r="C114" s="1"/>
@@ -14430,13 +14430,13 @@
       </c>
       <c r="AV114" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW114" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="25"/>
       <c r="C115" s="1"/>
@@ -14545,13 +14545,13 @@
       </c>
       <c r="AV115" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW115" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="25"/>
       <c r="C116" s="1"/>
@@ -14660,13 +14660,13 @@
       </c>
       <c r="AV116" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW116" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="25"/>
       <c r="C117" s="1"/>
@@ -14775,13 +14775,13 @@
       </c>
       <c r="AV117" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW117" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="25"/>
       <c r="C118" s="1"/>
@@ -14890,13 +14890,13 @@
       </c>
       <c r="AV118" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW118" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="25"/>
       <c r="C119" s="1"/>
@@ -15005,13 +15005,13 @@
       </c>
       <c r="AV119" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW119" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="25"/>
       <c r="C120" s="1"/>
@@ -15120,13 +15120,13 @@
       </c>
       <c r="AV120" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW120" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="25"/>
       <c r="C121" s="1"/>
@@ -15235,13 +15235,13 @@
       </c>
       <c r="AV121" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW121" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="25"/>
       <c r="C122" s="1"/>
@@ -15350,13 +15350,13 @@
       </c>
       <c r="AV122" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW122" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="25"/>
       <c r="C123" s="1"/>
@@ -15465,13 +15465,13 @@
       </c>
       <c r="AV123" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW123" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="25"/>
       <c r="C124" s="1"/>
@@ -15580,13 +15580,13 @@
       </c>
       <c r="AV124" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW124" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="25"/>
       <c r="C125" s="1"/>
@@ -15695,13 +15695,13 @@
       </c>
       <c r="AV125" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW125" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="25"/>
       <c r="C126" s="1"/>
@@ -15810,13 +15810,13 @@
       </c>
       <c r="AV126" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW126" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="25"/>
       <c r="C127" s="1"/>
@@ -15925,13 +15925,13 @@
       </c>
       <c r="AV127" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW127" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="25"/>
       <c r="C128" s="1"/>
@@ -16040,13 +16040,13 @@
       </c>
       <c r="AV128" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW128" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="25"/>
       <c r="C129" s="1"/>
@@ -16155,13 +16155,13 @@
       </c>
       <c r="AV129" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW129" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="25"/>
       <c r="C130" s="1"/>
@@ -16270,13 +16270,13 @@
       </c>
       <c r="AV130" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW130" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="25"/>
       <c r="C131" s="1"/>
@@ -16385,13 +16385,13 @@
       </c>
       <c r="AV131" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW131" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="25"/>
       <c r="C132" s="1"/>
@@ -16500,13 +16500,13 @@
       </c>
       <c r="AV132" s="4" t="str">
         <f t="shared" ref="AV132:AV195" si="41">IF(A132&lt;&gt;"",CONCATENATE(IF(AV131&lt;&gt;"",CONCATENATE(AV131,","),""),AT132),AV131)</f>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW132" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="25"/>
       <c r="C133" s="1"/>
@@ -16615,13 +16615,13 @@
       </c>
       <c r="AV133" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW133" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="25"/>
       <c r="C134" s="1"/>
@@ -16730,13 +16730,13 @@
       </c>
       <c r="AV134" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW134" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="25"/>
       <c r="C135" s="1"/>
@@ -16845,13 +16845,13 @@
       </c>
       <c r="AV135" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW135" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="25"/>
       <c r="C136" s="1"/>
@@ -16960,13 +16960,13 @@
       </c>
       <c r="AV136" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW136" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="25"/>
       <c r="C137" s="1"/>
@@ -17075,13 +17075,13 @@
       </c>
       <c r="AV137" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW137" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="25"/>
       <c r="C138" s="1"/>
@@ -17190,13 +17190,13 @@
       </c>
       <c r="AV138" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW138" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="25"/>
       <c r="C139" s="1"/>
@@ -17305,13 +17305,13 @@
       </c>
       <c r="AV139" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW139" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="25"/>
       <c r="C140" s="1"/>
@@ -17420,13 +17420,13 @@
       </c>
       <c r="AV140" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW140" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="25"/>
       <c r="C141" s="1"/>
@@ -17535,13 +17535,13 @@
       </c>
       <c r="AV141" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW141" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="25"/>
       <c r="C142" s="1"/>
@@ -17650,13 +17650,13 @@
       </c>
       <c r="AV142" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW142" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="25"/>
       <c r="C143" s="1"/>
@@ -17765,13 +17765,13 @@
       </c>
       <c r="AV143" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW143" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="25"/>
       <c r="C144" s="1"/>
@@ -17880,13 +17880,13 @@
       </c>
       <c r="AV144" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW144" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="25"/>
       <c r="C145" s="1"/>
@@ -17995,13 +17995,13 @@
       </c>
       <c r="AV145" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW145" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="25"/>
       <c r="C146" s="1"/>
@@ -18110,13 +18110,13 @@
       </c>
       <c r="AV146" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW146" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="25"/>
       <c r="C147" s="1"/>
@@ -18225,13 +18225,13 @@
       </c>
       <c r="AV147" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW147" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="25"/>
       <c r="C148" s="1"/>
@@ -18340,13 +18340,13 @@
       </c>
       <c r="AV148" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW148" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="25"/>
       <c r="C149" s="1"/>
@@ -18455,13 +18455,13 @@
       </c>
       <c r="AV149" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW149" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="25"/>
       <c r="C150" s="1"/>
@@ -18570,13 +18570,13 @@
       </c>
       <c r="AV150" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW150" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="25"/>
       <c r="C151" s="1"/>
@@ -18685,13 +18685,13 @@
       </c>
       <c r="AV151" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW151" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -18800,13 +18800,13 @@
       </c>
       <c r="AV152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW152" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -18915,13 +18915,13 @@
       </c>
       <c r="AV153" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW153" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -19030,13 +19030,13 @@
       </c>
       <c r="AV154" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW154" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -19145,13 +19145,13 @@
       </c>
       <c r="AV155" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW155" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -19260,13 +19260,13 @@
       </c>
       <c r="AV156" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW156" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -19375,13 +19375,13 @@
       </c>
       <c r="AV157" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW157" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -19490,13 +19490,13 @@
       </c>
       <c r="AV158" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW158" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -19605,13 +19605,13 @@
       </c>
       <c r="AV159" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW159" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -19720,13 +19720,13 @@
       </c>
       <c r="AV160" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW160" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -19835,13 +19835,13 @@
       </c>
       <c r="AV161" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW161" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -19950,13 +19950,13 @@
       </c>
       <c r="AV162" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW162" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -20065,13 +20065,13 @@
       </c>
       <c r="AV163" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW163" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -20180,13 +20180,13 @@
       </c>
       <c r="AV164" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW164" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -20295,13 +20295,13 @@
       </c>
       <c r="AV165" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW165" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -20410,13 +20410,13 @@
       </c>
       <c r="AV166" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW166" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -20525,13 +20525,13 @@
       </c>
       <c r="AV167" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW167" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -20640,13 +20640,13 @@
       </c>
       <c r="AV168" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW168" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -20755,13 +20755,13 @@
       </c>
       <c r="AV169" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW169" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="25"/>
       <c r="C170" s="1"/>
@@ -20870,13 +20870,13 @@
       </c>
       <c r="AV170" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW170" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="25"/>
       <c r="C171" s="1"/>
@@ -20985,13 +20985,13 @@
       </c>
       <c r="AV171" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW171" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="25"/>
       <c r="C172" s="1"/>
@@ -21100,13 +21100,13 @@
       </c>
       <c r="AV172" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW172" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="25"/>
       <c r="C173" s="1"/>
@@ -21215,13 +21215,13 @@
       </c>
       <c r="AV173" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW173" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="25"/>
       <c r="C174" s="1"/>
@@ -21330,13 +21330,13 @@
       </c>
       <c r="AV174" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW174" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="25"/>
       <c r="C175" s="1"/>
@@ -21445,13 +21445,13 @@
       </c>
       <c r="AV175" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW175" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="25"/>
       <c r="C176" s="1"/>
@@ -21560,13 +21560,13 @@
       </c>
       <c r="AV176" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW176" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="25"/>
       <c r="C177" s="1"/>
@@ -21675,13 +21675,13 @@
       </c>
       <c r="AV177" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW177" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="25"/>
       <c r="C178" s="1"/>
@@ -21790,13 +21790,13 @@
       </c>
       <c r="AV178" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW178" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="25"/>
       <c r="C179" s="1"/>
@@ -21905,13 +21905,13 @@
       </c>
       <c r="AV179" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW179" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="25"/>
       <c r="C180" s="1"/>
@@ -22020,13 +22020,13 @@
       </c>
       <c r="AV180" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW180" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="25"/>
       <c r="C181" s="1"/>
@@ -22135,13 +22135,13 @@
       </c>
       <c r="AV181" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW181" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="25"/>
       <c r="C182" s="1"/>
@@ -22250,13 +22250,13 @@
       </c>
       <c r="AV182" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW182" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="25"/>
       <c r="C183" s="1"/>
@@ -22365,13 +22365,13 @@
       </c>
       <c r="AV183" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW183" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="25"/>
       <c r="C184" s="1"/>
@@ -22480,13 +22480,13 @@
       </c>
       <c r="AV184" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW184" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="25"/>
       <c r="C185" s="1"/>
@@ -22595,13 +22595,13 @@
       </c>
       <c r="AV185" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW185" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="25"/>
       <c r="C186" s="1"/>
@@ -22710,13 +22710,13 @@
       </c>
       <c r="AV186" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW186" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="25"/>
       <c r="C187" s="1"/>
@@ -22825,13 +22825,13 @@
       </c>
       <c r="AV187" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW187" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="25"/>
       <c r="C188" s="1"/>
@@ -22940,13 +22940,13 @@
       </c>
       <c r="AV188" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW188" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="25"/>
       <c r="C189" s="1"/>
@@ -23055,13 +23055,13 @@
       </c>
       <c r="AV189" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW189" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="25"/>
       <c r="C190" s="1"/>
@@ -23170,13 +23170,13 @@
       </c>
       <c r="AV190" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW190" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="25"/>
       <c r="C191" s="1"/>
@@ -23285,13 +23285,13 @@
       </c>
       <c r="AV191" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW191" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="25"/>
       <c r="C192" s="1"/>
@@ -23400,13 +23400,13 @@
       </c>
       <c r="AV192" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW192" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="25"/>
       <c r="C193" s="1"/>
@@ -23515,13 +23515,13 @@
       </c>
       <c r="AV193" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW193" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="25"/>
       <c r="C194" s="1"/>
@@ -23630,13 +23630,13 @@
       </c>
       <c r="AV194" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW194" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="25"/>
       <c r="C195" s="1"/>
@@ -23745,13 +23745,13 @@
       </c>
       <c r="AV195" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW195" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="25"/>
       <c r="C196" s="1"/>
@@ -23860,13 +23860,13 @@
       </c>
       <c r="AV196" s="4" t="str">
         <f t="shared" ref="AV196:AV202" si="54">IF(A196&lt;&gt;"",CONCATENATE(IF(AV195&lt;&gt;"",CONCATENATE(AV195,","),""),AT196),AV195)</f>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW196" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="25"/>
       <c r="C197" s="1"/>
@@ -23975,13 +23975,13 @@
       </c>
       <c r="AV197" s="4" t="str">
         <f t="shared" si="54"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW197" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="25"/>
       <c r="C198" s="1"/>
@@ -24090,13 +24090,13 @@
       </c>
       <c r="AV198" s="4" t="str">
         <f t="shared" si="54"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW198" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="25"/>
       <c r="C199" s="1"/>
@@ -24205,13 +24205,13 @@
       </c>
       <c r="AV199" s="4" t="str">
         <f t="shared" si="54"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW199" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="25"/>
       <c r="C200" s="1"/>
@@ -24320,13 +24320,13 @@
       </c>
       <c r="AV200" s="4" t="str">
         <f t="shared" si="54"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW200" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="25"/>
       <c r="C201" s="1"/>
@@ -24435,13 +24435,13 @@
       </c>
       <c r="AV201" s="4" t="str">
         <f t="shared" si="54"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW201" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="25"/>
       <c r="C202" s="1"/>
@@ -24546,7 +24546,7 @@
       </c>
       <c r="AV202" s="4" t="str">
         <f t="shared" si="54"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "RS", "descr": "Robotic station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "UR_Pick_and_Place_Station.glb", "unit": 1}], "position": [20,0,360], "rotation": [0,1.5707963267949,0], "placementRelTo": "building"},{"id": "UR", "type": "http://www.ontoeng.com/factory#Robot", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URPPs_Robot", "unit": 1}], "position": [-33,0,0.1], "placementRelTo": "RS", "parentObject": "RS"},{"id": "UR_base", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URbase", "unit": 1}], "position": [0,0,0], "placementRelTo": "UR", "parentObject": "UR"},{"id": "UR_joint1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint1", "unit": 1}], "position": [0,8.605,0], "rotation": [0,0.805,0], "placementRelTo": "UR_base", "parentObject": "UR_base"},{"id": "UR_joint2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint2", "unit": 1}], "position": [0,6.585,5.4], "rotation": [0,0,-0.5], "placementRelTo": "UR_joint1", "parentObject": "UR_joint1"},{"id": "UR_joint3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint3", "unit": 1}], "position": [0,24.365,2.36], "rotation": [0,0,2.045], "placementRelTo": "UR_joint2", "parentObject": "UR_joint2"},{"id": "UR_joint4", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint4", "unit": 1}], "position": [0,21.3,0.8], "rotation": [0,0,1.44], "placementRelTo": "UR_joint3", "parentObject": "UR_joint3"},{"id": "UR_joint5", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint5", "unit": 1}], "position": [0,4.26,4.08], "rotation": [0,0.86,0], "placementRelTo": "UR_joint4", "parentObject": "UR_joint4"},{"id": "UR_joint6", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URjoint6", "unit": 1}], "position": [0,4.08,4.26], "rotation": [0,0,1.511], "placementRelTo": "UR_joint5", "parentObject": "UR_joint5"},{"id": "UR_EndEffector", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#UREndEffector", "unit": 1}], "position": [0,0,3.8], "placementRelTo": "UR_joint6", "parentObject": "UR_joint6"},{"id": "UR_Gripper1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper1", "unit": 1}], "position": [0,-1.27,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"},{"id": "UR_Gripper2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "UR_Pick_and_Place_Station.glb#URgripper2", "unit": 1}], "position": [0,1.43,3.5], "placementRelTo": "UR_EndEffector", "parentObject": "UR_EndEffector"}</v>
       </c>
       <c r="AW202" s="5" t="s">
         <v>1</v>
